--- a/output/GRDS_26470660000120.xlsx
+++ b/output/GRDS_26470660000120.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2174414</v>
+        <v>0.2174668</v>
       </c>
       <c r="C43">
-        <v>0.0112886846924225</v>
+        <v>0.01130978364025781</v>
       </c>
     </row>
   </sheetData>

--- a/output/GRDS_26470660000120.xlsx
+++ b/output/GRDS_26470660000120.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GRDS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,480 +383,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
       <c r="B2">
-        <v>0.0002412000000000525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
-        <v>0.01873560000000007</v>
-      </c>
-      <c r="C3">
         <v>0.01848994022641737</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.0339084999999999</v>
-      </c>
-      <c r="C4">
         <v>0.01489385469595828</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.05171670000000006</v>
-      </c>
-      <c r="C5">
         <v>0.01722415474870376</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.04448479999999999</v>
-      </c>
-      <c r="C6">
         <v>-0.006876281416849261</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.04564360000000001</v>
-      </c>
-      <c r="C7">
         <v>0.001109446494578004</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.06027329999999997</v>
-      </c>
-      <c r="C8">
         <v>0.01399109601015103</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.0747580000000001</v>
-      </c>
-      <c r="C9">
         <v>0.01366128902802721</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.08251190000000008</v>
-      </c>
-      <c r="C10">
         <v>0.007214554346187674</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.0907521</v>
-      </c>
-      <c r="C11">
         <v>0.007612110314907383</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.0817178999999999</v>
-      </c>
-      <c r="C12">
         <v>-0.008282541926804554</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.04950410000000005</v>
-      </c>
-      <c r="C13">
         <v>-0.02978022273644532</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.05920579999999998</v>
-      </c>
-      <c r="C14">
         <v>0.009244080132702504</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.06040080000000003</v>
-      </c>
-      <c r="C15">
         <v>0.001128203791935567</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.05502359999999995</v>
-      </c>
-      <c r="C16">
         <v>-0.005070912809571726</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.0617437999999999</v>
-      </c>
-      <c r="C17">
         <v>0.006369715331486336</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.0788203999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01608354105764498</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.06711969999999989</v>
-      </c>
-      <c r="C19">
         <v>-0.01084582753533392</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.07891880000000007</v>
-      </c>
-      <c r="C20">
         <v>0.01105696015170565</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.1164448</v>
-      </c>
-      <c r="C21">
         <v>0.03478111605803869</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.1150351999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.001262579215739246</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1028758999999999</v>
-      </c>
-      <c r="C23">
         <v>-0.01090485753274872</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.1065526999999999</v>
-      </c>
-      <c r="C24">
         <v>0.003333829309353886</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.1110723</v>
-      </c>
-      <c r="C25">
         <v>0.004084396522642031</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.1342439</v>
-      </c>
-      <c r="C26">
         <v>0.02085516847103475</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.1595523000000001</v>
-      </c>
-      <c r="C27">
         <v>0.02231301398226626</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.1464805</v>
-      </c>
-      <c r="C28">
         <v>-0.01127314395392087</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.1528444</v>
-      </c>
-      <c r="C29">
         <v>0.005550813991166859</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.1733735000000001</v>
-      </c>
-      <c r="C30">
         <v>0.01780734676769913</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.1597888999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.01157738776272021</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.1977437</v>
-      </c>
-      <c r="C32">
         <v>0.032725610669321</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.1959303999999999</v>
-      </c>
-      <c r="C33">
         <v>-0.001513929900027855</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.1824201999999999</v>
-      </c>
-      <c r="C34">
         <v>-0.01129681125256121</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.1459292999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0308611946920393</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.1674589</v>
-      </c>
-      <c r="C36">
         <v>0.01878789555341687</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.1802543000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01096004321865207</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.2096538999999999</v>
-      </c>
-      <c r="C38">
         <v>0.02490954703575321</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.2419723</v>
-      </c>
-      <c r="C39">
         <v>0.02671706345095903</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.2346356999999999</v>
-      </c>
-      <c r="C40">
         <v>-0.005907217093328199</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.1951784999999999</v>
-      </c>
-      <c r="C41">
         <v>-0.03195857693083071</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.2038515000000001</v>
-      </c>
-      <c r="C42">
         <v>0.007256656641664971</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2174668</v>
-      </c>
-      <c r="C43">
-        <v>0.01130978364025781</v>
+        <v>0.008639686871678043</v>
       </c>
     </row>
   </sheetData>
